--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Gnas-Adrb2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H2">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J2">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979453666666666</v>
+        <v>11.37309633333333</v>
       </c>
       <c r="N2">
-        <v>29.938361</v>
+        <v>34.119289</v>
       </c>
       <c r="O2">
-        <v>0.05426893140813892</v>
+        <v>0.05213271035055691</v>
       </c>
       <c r="P2">
-        <v>0.05426893140813892</v>
+        <v>0.0521327103505569</v>
       </c>
       <c r="Q2">
-        <v>863.067980799204</v>
+        <v>1631.670263066285</v>
       </c>
       <c r="R2">
-        <v>7767.611827192837</v>
+        <v>14685.03236759656</v>
       </c>
       <c r="S2">
-        <v>0.00615323977536973</v>
+        <v>0.01270146405940602</v>
       </c>
       <c r="T2">
-        <v>0.006153239775369732</v>
+        <v>0.01270146405940602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H3">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J3">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.934403</v>
       </c>
       <c r="O3">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="P3">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="Q3">
-        <v>315.218762926092</v>
+        <v>522.9106684926163</v>
       </c>
       <c r="R3">
-        <v>2836.968866334828</v>
+        <v>4706.196016433547</v>
       </c>
       <c r="S3">
-        <v>0.002247350930784825</v>
+        <v>0.004070510575866964</v>
       </c>
       <c r="T3">
-        <v>0.002247350930784825</v>
+        <v>0.004070510575866965</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H4">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J4">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.01072433333333</v>
+        <v>26.36701733333333</v>
       </c>
       <c r="N4">
-        <v>75.032173</v>
+        <v>79.101052</v>
       </c>
       <c r="O4">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="P4">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="Q4">
-        <v>2163.039788520372</v>
+        <v>3782.81136883186</v>
       </c>
       <c r="R4">
-        <v>19467.35809668335</v>
+        <v>34045.30231948675</v>
       </c>
       <c r="S4">
-        <v>0.01542138366679534</v>
+        <v>0.02944666194653724</v>
       </c>
       <c r="T4">
-        <v>0.01542138366679535</v>
+        <v>0.02944666194653724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H5">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J5">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.991808333333334</v>
+        <v>8.246535</v>
       </c>
       <c r="N5">
-        <v>23.975425</v>
+        <v>24.739605</v>
       </c>
       <c r="O5">
-        <v>0.04345998415898517</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="P5">
-        <v>0.04345998415898516</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="Q5">
-        <v>691.1674838697</v>
+        <v>1183.110169690405</v>
       </c>
       <c r="R5">
-        <v>6220.507354827301</v>
+        <v>10647.99152721365</v>
       </c>
       <c r="S5">
-        <v>0.004927675858454436</v>
+        <v>0.009209723090988253</v>
       </c>
       <c r="T5">
-        <v>0.004927675858454437</v>
+        <v>0.009209723090988253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H6">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I6">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J6">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.074323</v>
+        <v>146.016103</v>
       </c>
       <c r="N6">
-        <v>312.222969</v>
+        <v>438.048309</v>
       </c>
       <c r="O6">
-        <v>0.5659630762253981</v>
+        <v>0.669317746118574</v>
       </c>
       <c r="P6">
-        <v>0.5659630762253981</v>
+        <v>0.6693177461185739</v>
       </c>
       <c r="Q6">
-        <v>9000.814954898917</v>
+        <v>20948.57250928562</v>
       </c>
       <c r="R6">
-        <v>81007.33459409027</v>
+        <v>188537.1525835705</v>
       </c>
       <c r="S6">
-        <v>0.06417127482813205</v>
+        <v>0.1630706563975317</v>
       </c>
       <c r="T6">
-        <v>0.06417127482813206</v>
+        <v>0.1630706563975317</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>86.484492</v>
+        <v>143.4675496666667</v>
       </c>
       <c r="H7">
-        <v>259.453476</v>
+        <v>430.402649</v>
       </c>
       <c r="I7">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027481</v>
       </c>
       <c r="J7">
-        <v>0.1133842074223504</v>
+        <v>0.2436371325027482</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.18778166666667</v>
+        <v>22.509076</v>
       </c>
       <c r="N7">
-        <v>99.563345</v>
+        <v>67.52722799999999</v>
       </c>
       <c r="O7">
-        <v>0.180477359484371</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="P7">
-        <v>0.1804773594843709</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="Q7">
-        <v>2870.22843804858</v>
+        <v>3229.321978980774</v>
       </c>
       <c r="R7">
-        <v>25832.05594243722</v>
+        <v>29063.89781082697</v>
       </c>
       <c r="S7">
-        <v>0.02046328236281401</v>
+        <v>0.02513811643241792</v>
       </c>
       <c r="T7">
-        <v>0.02046328236281402</v>
+        <v>0.02513811643241792</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>473.562271</v>
       </c>
       <c r="I8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J8">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979453666666666</v>
+        <v>11.37309633333333</v>
       </c>
       <c r="N8">
-        <v>29.938361</v>
+        <v>34.119289</v>
       </c>
       <c r="O8">
-        <v>0.05426893140813892</v>
+        <v>0.05213271035055691</v>
       </c>
       <c r="P8">
-        <v>0.05426893140813892</v>
+        <v>0.0521327103505569</v>
       </c>
       <c r="Q8">
-        <v>1575.297580575315</v>
+        <v>1795.289775971703</v>
       </c>
       <c r="R8">
-        <v>14177.67822517783</v>
+        <v>16157.60798374532</v>
       </c>
       <c r="S8">
-        <v>0.0112310779063589</v>
+        <v>0.01397513277153923</v>
       </c>
       <c r="T8">
-        <v>0.0112310779063589</v>
+        <v>0.01397513277153923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>473.562271</v>
       </c>
       <c r="I9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J9">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.934403</v>
       </c>
       <c r="O9">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="P9">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="Q9">
         <v>575.3467463010237</v>
@@ -1013,10 +1013,10 @@
         <v>5178.120716709213</v>
       </c>
       <c r="S9">
-        <v>0.004101932365386484</v>
+        <v>0.004478690446993688</v>
       </c>
       <c r="T9">
-        <v>0.004101932365386486</v>
+        <v>0.004478690446993688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>473.562271</v>
       </c>
       <c r="I10">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J10">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.01072433333333</v>
+        <v>26.36701733333333</v>
       </c>
       <c r="N10">
-        <v>75.032173</v>
+        <v>79.101052</v>
       </c>
       <c r="O10">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="P10">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="Q10">
-        <v>3948.045138216098</v>
+        <v>4162.141535956566</v>
       </c>
       <c r="R10">
-        <v>35532.40624394488</v>
+        <v>37459.27382360909</v>
       </c>
       <c r="S10">
-        <v>0.02814757228848963</v>
+        <v>0.03239949414152295</v>
       </c>
       <c r="T10">
-        <v>0.02814757228848964</v>
+        <v>0.03239949414152295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>473.562271</v>
       </c>
       <c r="I11">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J11">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.991808333333334</v>
+        <v>8.246535</v>
       </c>
       <c r="N11">
-        <v>23.975425</v>
+        <v>24.739605</v>
       </c>
       <c r="O11">
-        <v>0.04345998415898517</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="P11">
-        <v>0.04345998415898516</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="Q11">
-        <v>1261.539634576686</v>
+        <v>1301.749280826995</v>
       </c>
       <c r="R11">
-        <v>11353.85671119018</v>
+        <v>11715.74352744296</v>
       </c>
       <c r="S11">
-        <v>0.008994141864114234</v>
+        <v>0.01013324939421908</v>
       </c>
       <c r="T11">
-        <v>0.008994141864114234</v>
+        <v>0.01013324939421908</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>473.562271</v>
       </c>
       <c r="I12">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J12">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.074323</v>
+        <v>146.016103</v>
       </c>
       <c r="N12">
-        <v>312.222969</v>
+        <v>438.048309</v>
       </c>
       <c r="O12">
-        <v>0.5659630762253981</v>
+        <v>0.669317746118574</v>
       </c>
       <c r="P12">
-        <v>0.5659630762253981</v>
+        <v>0.6693177461185739</v>
       </c>
       <c r="Q12">
-        <v>16428.55758422251</v>
+        <v>23049.23911308331</v>
       </c>
       <c r="R12">
-        <v>147857.0182580026</v>
+        <v>207443.1520177498</v>
       </c>
       <c r="S12">
-        <v>0.1171273366966775</v>
+        <v>0.1794229439723449</v>
       </c>
       <c r="T12">
-        <v>0.1171273366966776</v>
+        <v>0.1794229439723449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>473.562271</v>
       </c>
       <c r="I13">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="J13">
-        <v>0.206952258224759</v>
+        <v>0.2680684099784185</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.18778166666667</v>
+        <v>22.509076</v>
       </c>
       <c r="N13">
-        <v>99.563345</v>
+        <v>67.52722799999999</v>
       </c>
       <c r="O13">
-        <v>0.180477359484371</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="P13">
-        <v>0.1804773594843709</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="Q13">
-        <v>5238.827085172944</v>
+        <v>3553.149716223865</v>
       </c>
       <c r="R13">
-        <v>47149.4437665565</v>
+        <v>31978.34744601478</v>
       </c>
       <c r="S13">
-        <v>0.0373501971037322</v>
+        <v>0.02765889925179863</v>
       </c>
       <c r="T13">
-        <v>0.0373501971037322</v>
+        <v>0.02765889925179863</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H14">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I14">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J14">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.979453666666666</v>
+        <v>11.37309633333333</v>
       </c>
       <c r="N14">
-        <v>29.938361</v>
+        <v>34.119289</v>
       </c>
       <c r="O14">
-        <v>0.05426893140813892</v>
+        <v>0.05213271035055691</v>
       </c>
       <c r="P14">
-        <v>0.05426893140813892</v>
+        <v>0.0521327103505569</v>
       </c>
       <c r="Q14">
-        <v>1068.999482604449</v>
+        <v>829.4321515562367</v>
       </c>
       <c r="R14">
-        <v>9620.995343440041</v>
+        <v>7464.889364006129</v>
       </c>
       <c r="S14">
-        <v>0.007621427607730601</v>
+        <v>0.006456575756249703</v>
       </c>
       <c r="T14">
-        <v>0.007621427607730603</v>
+        <v>0.006456575756249703</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H15">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I15">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J15">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.934403</v>
       </c>
       <c r="O15">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="P15">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="Q15">
-        <v>390.4312313419073</v>
+        <v>265.8128487458507</v>
       </c>
       <c r="R15">
-        <v>3513.881082077166</v>
+        <v>2392.315638712656</v>
       </c>
       <c r="S15">
-        <v>0.002783577928606456</v>
+        <v>0.002069175630209176</v>
       </c>
       <c r="T15">
-        <v>0.002783577928606457</v>
+        <v>0.002069175630209176</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H16">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I16">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J16">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.01072433333333</v>
+        <v>26.36701733333333</v>
       </c>
       <c r="N16">
-        <v>75.032173</v>
+        <v>79.101052</v>
       </c>
       <c r="O16">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="P16">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="Q16">
-        <v>2679.149807689456</v>
+        <v>1922.928574236167</v>
       </c>
       <c r="R16">
-        <v>24112.3482692051</v>
+        <v>17306.35716812551</v>
       </c>
       <c r="S16">
-        <v>0.01910098801902411</v>
+        <v>0.01496871563287989</v>
       </c>
       <c r="T16">
-        <v>0.01910098801902411</v>
+        <v>0.01496871563287989</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H17">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I17">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J17">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.991808333333334</v>
+        <v>8.246535</v>
       </c>
       <c r="N17">
-        <v>23.975425</v>
+        <v>24.739605</v>
       </c>
       <c r="O17">
-        <v>0.04345998415898517</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="P17">
-        <v>0.04345998415898516</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="Q17">
-        <v>856.0828336668723</v>
+        <v>601.4141679154401</v>
       </c>
       <c r="R17">
-        <v>7704.74550300185</v>
+        <v>5412.727511238961</v>
       </c>
       <c r="S17">
-        <v>0.006103439196356622</v>
+        <v>0.004681607927474512</v>
       </c>
       <c r="T17">
-        <v>0.006103439196356624</v>
+        <v>0.004681607927474512</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H18">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I18">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J18">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.074323</v>
+        <v>146.016103</v>
       </c>
       <c r="N18">
-        <v>312.222969</v>
+        <v>438.048309</v>
       </c>
       <c r="O18">
-        <v>0.5659630762253981</v>
+        <v>0.669317746118574</v>
       </c>
       <c r="P18">
-        <v>0.5659630762253981</v>
+        <v>0.6693177461185739</v>
       </c>
       <c r="Q18">
-        <v>11148.4457121158</v>
+        <v>10648.85471146369</v>
       </c>
       <c r="R18">
-        <v>100336.0114090422</v>
+        <v>95839.69240317318</v>
       </c>
       <c r="S18">
-        <v>0.07948279986684026</v>
+        <v>0.0828942271322119</v>
       </c>
       <c r="T18">
-        <v>0.07948279986684029</v>
+        <v>0.08289422713221188</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>107.1200406666667</v>
+        <v>72.92931733333334</v>
       </c>
       <c r="H19">
-        <v>321.360122</v>
+        <v>218.787952</v>
       </c>
       <c r="I19">
-        <v>0.1404381367013168</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="J19">
-        <v>0.1404381367013169</v>
+        <v>0.1238488410219541</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.18778166666667</v>
+        <v>22.509076</v>
       </c>
       <c r="N19">
-        <v>99.563345</v>
+        <v>67.52722799999999</v>
       </c>
       <c r="O19">
-        <v>0.180477359484371</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="P19">
-        <v>0.1804773594843709</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="Q19">
-        <v>3555.076521769788</v>
+        <v>1641.571546484117</v>
       </c>
       <c r="R19">
-        <v>31995.68869592809</v>
+        <v>14774.14391835706</v>
       </c>
       <c r="S19">
-        <v>0.02534590408275879</v>
+        <v>0.01277853894292891</v>
       </c>
       <c r="T19">
-        <v>0.0253459040827588</v>
+        <v>0.01277853894292891</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H20">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I20">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J20">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.979453666666666</v>
+        <v>11.37309633333333</v>
       </c>
       <c r="N20">
-        <v>29.938361</v>
+        <v>34.119289</v>
       </c>
       <c r="O20">
-        <v>0.05426893140813892</v>
+        <v>0.05213271035055691</v>
       </c>
       <c r="P20">
-        <v>0.05426893140813892</v>
+        <v>0.0521327103505569</v>
       </c>
       <c r="Q20">
-        <v>2699.435061565054</v>
+        <v>981.8610759962139</v>
       </c>
       <c r="R20">
-        <v>24294.91555408549</v>
+        <v>8836.749683965925</v>
       </c>
       <c r="S20">
-        <v>0.01924561165676493</v>
+        <v>0.007643133205516422</v>
       </c>
       <c r="T20">
-        <v>0.01924561165676493</v>
+        <v>0.007643133205516421</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H21">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I21">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J21">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.934403</v>
       </c>
       <c r="O21">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="P21">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="Q21">
-        <v>985.9160571776829</v>
+        <v>314.6626148908387</v>
       </c>
       <c r="R21">
-        <v>8873.244514599146</v>
+        <v>2831.963534017548</v>
       </c>
       <c r="S21">
-        <v>0.007029084652849411</v>
+        <v>0.002449438458456692</v>
       </c>
       <c r="T21">
-        <v>0.007029084652849414</v>
+        <v>0.002449438458456692</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H22">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I22">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J22">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.01072433333333</v>
+        <v>26.36701733333333</v>
       </c>
       <c r="N22">
-        <v>75.032173</v>
+        <v>79.101052</v>
       </c>
       <c r="O22">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="P22">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="Q22">
-        <v>6765.38299947732</v>
+        <v>2276.314844343693</v>
       </c>
       <c r="R22">
-        <v>60888.44699529588</v>
+        <v>20486.83359909323</v>
       </c>
       <c r="S22">
-        <v>0.04823377149207342</v>
+        <v>0.01771959190393684</v>
       </c>
       <c r="T22">
-        <v>0.04823377149207342</v>
+        <v>0.01771959190393683</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H23">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I23">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J23">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.991808333333334</v>
+        <v>8.246535</v>
       </c>
       <c r="N23">
-        <v>23.975425</v>
+        <v>24.739605</v>
       </c>
       <c r="O23">
-        <v>0.04345998415898517</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="P23">
-        <v>0.04345998415898516</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="Q23">
-        <v>2161.778424040092</v>
+        <v>711.93907894802</v>
       </c>
       <c r="R23">
-        <v>19456.00581636083</v>
+        <v>6407.45171053218</v>
       </c>
       <c r="S23">
-        <v>0.0154123907736931</v>
+        <v>0.005541970598122959</v>
       </c>
       <c r="T23">
-        <v>0.0154123907736931</v>
+        <v>0.005541970598122959</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H24">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I24">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J24">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.074323</v>
+        <v>146.016103</v>
       </c>
       <c r="N24">
-        <v>312.222969</v>
+        <v>438.048309</v>
       </c>
       <c r="O24">
-        <v>0.5659630762253981</v>
+        <v>0.669317746118574</v>
       </c>
       <c r="P24">
-        <v>0.5659630762253981</v>
+        <v>0.6693177461185739</v>
       </c>
       <c r="Q24">
-        <v>28152.02975021041</v>
+        <v>12605.84838133825</v>
       </c>
       <c r="R24">
-        <v>253368.2677518937</v>
+        <v>113452.6354320443</v>
       </c>
       <c r="S24">
-        <v>0.2007097854052917</v>
+        <v>0.09812811680038874</v>
       </c>
       <c r="T24">
-        <v>0.2007097854052917</v>
+        <v>0.09812811680038873</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>270.499283</v>
+        <v>86.33190533333334</v>
       </c>
       <c r="H25">
-        <v>811.497849</v>
+        <v>258.995716</v>
       </c>
       <c r="I25">
-        <v>0.354634063310091</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="J25">
-        <v>0.3546340633100911</v>
+        <v>0.1466091663779145</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.18778166666667</v>
+        <v>22.509076</v>
       </c>
       <c r="N25">
-        <v>99.563345</v>
+        <v>67.52722799999999</v>
       </c>
       <c r="O25">
-        <v>0.180477359484371</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="P25">
-        <v>0.1804773594843709</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="Q25">
-        <v>8977.271145193878</v>
+        <v>1943.251418372805</v>
       </c>
       <c r="R25">
-        <v>80795.4403067449</v>
+        <v>17489.26276535525</v>
       </c>
       <c r="S25">
-        <v>0.06400341932941847</v>
+        <v>0.01512691541149284</v>
       </c>
       <c r="T25">
-        <v>0.06400341932941847</v>
+        <v>0.01512691541149284</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H26">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I26">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J26">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.979453666666666</v>
+        <v>11.37309633333333</v>
       </c>
       <c r="N26">
-        <v>29.938361</v>
+        <v>34.119289</v>
       </c>
       <c r="O26">
-        <v>0.05426893140813892</v>
+        <v>0.05213271035055691</v>
       </c>
       <c r="P26">
-        <v>0.05426893140813892</v>
+        <v>0.0521327103505569</v>
       </c>
       <c r="Q26">
-        <v>365.1993477104058</v>
+        <v>392.9950881342272</v>
       </c>
       <c r="R26">
-        <v>3286.794129393653</v>
+        <v>3536.955793208045</v>
       </c>
       <c r="S26">
-        <v>0.002603687313471961</v>
+        <v>0.003059204485396208</v>
       </c>
       <c r="T26">
-        <v>0.002603687313471961</v>
+        <v>0.003059204485396208</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H27">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I27">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J27">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.934403</v>
       </c>
       <c r="O27">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="P27">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="Q27">
-        <v>133.3819457652577</v>
+        <v>125.9453756694683</v>
       </c>
       <c r="R27">
-        <v>1200.437511887319</v>
+        <v>1133.508381025215</v>
       </c>
       <c r="S27">
-        <v>0.0009509460578516556</v>
+        <v>0.0009804006965892446</v>
       </c>
       <c r="T27">
-        <v>0.0009509460578516559</v>
+        <v>0.0009804006965892446</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H28">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I28">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J28">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>25.01072433333333</v>
+        <v>26.36701733333333</v>
       </c>
       <c r="N28">
-        <v>75.032173</v>
+        <v>79.101052</v>
       </c>
       <c r="O28">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="P28">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="Q28">
-        <v>915.2705666450587</v>
+        <v>911.1070544948955</v>
       </c>
       <c r="R28">
-        <v>8237.435099805529</v>
+        <v>8199.963490454058</v>
       </c>
       <c r="S28">
-        <v>0.006525417905887815</v>
+        <v>0.007092360367707507</v>
       </c>
       <c r="T28">
-        <v>0.006525417905887815</v>
+        <v>0.007092360367707507</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H29">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I29">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J29">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.991808333333334</v>
+        <v>8.246535</v>
       </c>
       <c r="N29">
-        <v>23.975425</v>
+        <v>24.739605</v>
       </c>
       <c r="O29">
-        <v>0.04345998415898517</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="P29">
-        <v>0.04345998415898516</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="Q29">
-        <v>292.4612196065028</v>
+        <v>284.957381362225</v>
       </c>
       <c r="R29">
-        <v>2632.150976458525</v>
+        <v>2564.616432260025</v>
       </c>
       <c r="S29">
-        <v>0.002085101115174558</v>
+        <v>0.002218203040014417</v>
       </c>
       <c r="T29">
-        <v>0.002085101115174558</v>
+        <v>0.002218203040014417</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H30">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I30">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J30">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>104.074323</v>
+        <v>146.016103</v>
       </c>
       <c r="N30">
-        <v>312.222969</v>
+        <v>438.048309</v>
       </c>
       <c r="O30">
-        <v>0.5659630762253981</v>
+        <v>0.669317746118574</v>
       </c>
       <c r="P30">
-        <v>0.5659630762253981</v>
+        <v>0.6693177461185739</v>
       </c>
       <c r="Q30">
-        <v>3808.612790092493</v>
+        <v>5045.557479304572</v>
       </c>
       <c r="R30">
-        <v>34277.51511083244</v>
+        <v>45410.01731374114</v>
       </c>
       <c r="S30">
-        <v>0.02715348991081541</v>
+        <v>0.03927629768935174</v>
       </c>
       <c r="T30">
-        <v>0.02715348991081541</v>
+        <v>0.03927629768935174</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>36.59512433333333</v>
+        <v>34.55480166666666</v>
       </c>
       <c r="H31">
-        <v>109.785373</v>
+        <v>103.664405</v>
       </c>
       <c r="I31">
-        <v>0.04797749367663937</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="J31">
-        <v>0.04797749367663939</v>
+        <v>0.05868109416957502</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.18778166666667</v>
+        <v>22.509076</v>
       </c>
       <c r="N31">
-        <v>99.563345</v>
+        <v>67.52722799999999</v>
       </c>
       <c r="O31">
-        <v>0.180477359484371</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="P31">
-        <v>0.1804773594843709</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="Q31">
-        <v>1214.510996439187</v>
+        <v>777.7966568799264</v>
       </c>
       <c r="R31">
-        <v>10930.59896795268</v>
+        <v>7000.169911919338</v>
       </c>
       <c r="S31">
-        <v>0.008658851373437979</v>
+        <v>0.006054627890515901</v>
       </c>
       <c r="T31">
-        <v>0.008658851373437981</v>
+        <v>0.006054627890515901</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H32">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I32">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J32">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.979453666666666</v>
+        <v>11.37309633333333</v>
       </c>
       <c r="N32">
-        <v>29.938361</v>
+        <v>34.119289</v>
       </c>
       <c r="O32">
-        <v>0.05426893140813892</v>
+        <v>0.05213271035055691</v>
       </c>
       <c r="P32">
-        <v>0.05426893140813892</v>
+        <v>0.0521327103505569</v>
       </c>
       <c r="Q32">
-        <v>1039.889366361514</v>
+        <v>1065.884575321949</v>
       </c>
       <c r="R32">
-        <v>9359.004297253627</v>
+        <v>9592.961177897541</v>
       </c>
       <c r="S32">
-        <v>0.007413887148442797</v>
+        <v>0.008297200072449327</v>
       </c>
       <c r="T32">
-        <v>0.007413887148442799</v>
+        <v>0.008297200072449325</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H33">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I33">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J33">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.934403</v>
       </c>
       <c r="O33">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="P33">
-        <v>0.01982066975529985</v>
+        <v>0.01670726680310543</v>
       </c>
       <c r="Q33">
-        <v>379.7993286009023</v>
+        <v>341.590104590223</v>
       </c>
       <c r="R33">
-        <v>3418.193957408121</v>
+        <v>3074.310941312007</v>
       </c>
       <c r="S33">
-        <v>0.00270777781982101</v>
+        <v>0.002659050994989671</v>
       </c>
       <c r="T33">
-        <v>0.002707777819821011</v>
+        <v>0.002659050994989671</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H34">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I34">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J34">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>25.01072433333333</v>
+        <v>26.36701733333333</v>
       </c>
       <c r="N34">
-        <v>75.032173</v>
+        <v>79.101052</v>
       </c>
       <c r="O34">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="P34">
-        <v>0.136009978967807</v>
+        <v>0.120862783287786</v>
       </c>
       <c r="Q34">
-        <v>2606.193399755501</v>
+        <v>2471.112197517932</v>
       </c>
       <c r="R34">
-        <v>23455.74059779951</v>
+        <v>22240.00977766139</v>
       </c>
       <c r="S34">
-        <v>0.01858084559553666</v>
+        <v>0.01923595929520155</v>
       </c>
       <c r="T34">
-        <v>0.01858084559553667</v>
+        <v>0.01923595929520154</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H35">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I35">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J35">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.991808333333334</v>
+        <v>8.246535</v>
       </c>
       <c r="N35">
-        <v>23.975425</v>
+        <v>24.739605</v>
       </c>
       <c r="O35">
-        <v>0.04345998415898517</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="P35">
-        <v>0.04345998415898516</v>
+        <v>0.03780098294698313</v>
       </c>
       <c r="Q35">
-        <v>832.7706887994973</v>
+        <v>772.8638005633051</v>
       </c>
       <c r="R35">
-        <v>7494.936199195476</v>
+        <v>6955.774205069745</v>
       </c>
       <c r="S35">
-        <v>0.00593723535119221</v>
+        <v>0.006016228896163918</v>
       </c>
       <c r="T35">
-        <v>0.005937235351192212</v>
+        <v>0.006016228896163918</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H36">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I36">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J36">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>104.074323</v>
+        <v>146.016103</v>
       </c>
       <c r="N36">
-        <v>312.222969</v>
+        <v>438.048309</v>
       </c>
       <c r="O36">
-        <v>0.5659630762253981</v>
+        <v>0.669317746118574</v>
       </c>
       <c r="P36">
-        <v>0.5659630762253981</v>
+        <v>0.6693177461185739</v>
       </c>
       <c r="Q36">
-        <v>10844.86039155319</v>
+        <v>13684.60332830977</v>
       </c>
       <c r="R36">
-        <v>97603.74352397869</v>
+        <v>123161.4299547879</v>
       </c>
       <c r="S36">
-        <v>0.07731838951764106</v>
+        <v>0.106525504126745</v>
       </c>
       <c r="T36">
-        <v>0.07731838951764108</v>
+        <v>0.106525504126745</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>104.2030356666667</v>
+        <v>93.71982300000001</v>
       </c>
       <c r="H37">
-        <v>312.609107</v>
+        <v>281.159469</v>
       </c>
       <c r="I37">
-        <v>0.1366138406648432</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="J37">
-        <v>0.1366138406648433</v>
+        <v>0.1591553559493899</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>33.18778166666667</v>
+        <v>22.509076</v>
       </c>
       <c r="N37">
-        <v>99.563345</v>
+        <v>67.52722799999999</v>
       </c>
       <c r="O37">
-        <v>0.180477359484371</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="P37">
-        <v>0.1804773594843709</v>
+        <v>0.1031785104929946</v>
       </c>
       <c r="Q37">
-        <v>3458.267596709213</v>
+        <v>2109.546618613548</v>
       </c>
       <c r="R37">
-        <v>31124.40837038291</v>
+        <v>18985.91956752193</v>
       </c>
       <c r="S37">
-        <v>0.02465570523220949</v>
+        <v>0.01642141256384042</v>
       </c>
       <c r="T37">
-        <v>0.02465570523220949</v>
+        <v>0.01642141256384042</v>
       </c>
     </row>
   </sheetData>
